--- a/service-system/target/classes/static/摩擦系数-5车道.xlsx
+++ b/service-system/target/classes/static/摩擦系数-5车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D1D5B-AA27-49BF-98B1-D9CB50BC8428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2859E79-6A38-49C3-AD91-43B3E59DA254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="左幅-路面" sheetId="468" r:id="rId1"/>
@@ -32,16 +32,16 @@
     <definedName name="book1" localSheetId="2">[1]Sheet1!#REF!</definedName>
     <definedName name="book1" localSheetId="4">[1]Sheet1!#REF!</definedName>
     <definedName name="book1">[1]Sheet1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'右幅-路面'!$A$1:$R$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'右幅-桥'!$A$1:$R$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'右幅-隧道'!$A$1:$R$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'左幅-路面'!$A$1:$R$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'左幅-桥'!$A$1:$R$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'左幅-隧道'!$A$1:$R$44</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'右幅-路面'!$A:$M</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'右幅-路面'!$A$1:$L$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'右幅-桥'!$A$1:$L$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'右幅-隧道'!$A$1:$L$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'左幅-路面'!$A$1:$L$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'左幅-桥'!$A$1:$L$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'左幅-隧道'!$A$1:$L$44</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'右幅-路面'!$A:$L</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'右幅-桥'!$A:$M</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'右幅-隧道'!$A:$M</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'左幅-路面'!$A:$M</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'左幅-路面'!$A:$G</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'左幅-桥'!$A:$M</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'左幅-隧道'!$A:$R</definedName>
     <definedName name="右幅" localSheetId="1">[1]Sheet1!#REF!</definedName>
@@ -57,24 +57,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="32">
   <si>
     <t>项目名称：</t>
   </si>
   <si>
-    <t>分部工程名称：</t>
-  </si>
-  <si>
-    <t>路面面层</t>
-  </si>
-  <si>
-    <t>合同段：</t>
-  </si>
-  <si>
     <t>单位工程名称：</t>
-  </si>
-  <si>
-    <t>检测时间：</t>
   </si>
   <si>
     <t>桩号</t>
@@ -96,36 +84,6 @@
   </si>
   <si>
     <t>4车道</t>
-  </si>
-  <si>
-    <t>设计值</t>
-  </si>
-  <si>
-    <t>≥</t>
-  </si>
-  <si>
-    <t>评定</t>
-  </si>
-  <si>
-    <t>SFC平均值</t>
-  </si>
-  <si>
-    <t>标准差</t>
-  </si>
-  <si>
-    <t>SFC代表值</t>
-  </si>
-  <si>
-    <t>结果</t>
-  </si>
-  <si>
-    <t>检测点数</t>
-  </si>
-  <si>
-    <t>合格点数</t>
-  </si>
-  <si>
-    <t>隧道路面摩擦系数质量鉴定表</t>
   </si>
   <si>
     <t>压实度保证率ta及检测点数√n 值</t>
@@ -158,12 +116,68 @@
     <t>桥面系摩擦系数质量鉴定表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>检测点数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格点数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFC代表值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准差</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFC平均值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>评定</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分部工程名称：</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同段：</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测时间：</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>隧道路面摩擦系数质量鉴定表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右幅</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\K#\+###"/>
@@ -173,7 +187,6 @@
     <numFmt numFmtId="180" formatCode="\$#,##0.00;\(\$#,##0.00\)"/>
     <numFmt numFmtId="181" formatCode="\$#,##0;\(\$#,##0\)"/>
     <numFmt numFmtId="182" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -298,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -404,68 +417,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,7 +576,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,89 +608,50 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,22 +663,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,210 +1145,158 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="12" width="5.125" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="18" width="5.125" customWidth="1"/>
-    <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="12" width="5.375" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="44" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="42" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="46" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-    </row>
-    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39" t="s">
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1449,14 +1309,8 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1469,14 +1323,8 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1489,14 +1337,8 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1509,14 +1351,8 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1529,14 +1365,8 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1549,14 +1379,8 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1569,14 +1393,8 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1589,14 +1407,8 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1609,14 +1421,8 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1629,14 +1435,8 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1649,14 +1449,8 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1669,14 +1463,8 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1689,14 +1477,8 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1709,14 +1491,8 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1729,14 +1505,8 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1749,14 +1519,8 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1769,14 +1533,8 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1789,14 +1547,8 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1809,14 +1561,8 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1829,14 +1575,8 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1849,14 +1589,8 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1869,14 +1603,8 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1889,14 +1617,8 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1909,14 +1631,8 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1929,14 +1645,8 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1949,14 +1659,8 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1969,14 +1673,8 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1989,14 +1687,8 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2009,14 +1701,8 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2029,14 +1715,8 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2049,216 +1729,159 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="25"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="24"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="9"/>
+      <c r="G39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="21"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="9"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="21"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="9"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="21"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="9"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="17" t="s">
-        <v>20</v>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="21"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="17" t="s">
-        <v>21</v>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="28">
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:R44"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="G39:H42"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:L43"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -2268,210 +1891,157 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:W1"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="12" width="5.125" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="18" width="5.125" customWidth="1"/>
-    <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="23" max="23" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="12" width="5.375" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="44" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="42" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="46" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-    </row>
-    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39" t="s">
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2484,14 +2054,8 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2504,14 +2068,8 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2524,14 +2082,8 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2544,14 +2096,8 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2564,14 +2110,8 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2584,14 +2124,8 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2604,14 +2138,8 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2624,14 +2152,8 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2644,14 +2166,8 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2664,14 +2180,8 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2684,14 +2194,8 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2704,14 +2208,8 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2724,14 +2222,8 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2744,14 +2236,8 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2764,14 +2250,8 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2784,14 +2264,8 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2804,14 +2278,8 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2824,14 +2292,8 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2844,14 +2306,8 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2864,14 +2320,8 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2884,14 +2334,8 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2904,14 +2348,8 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2924,14 +2362,8 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2944,14 +2376,8 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2964,14 +2390,8 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2984,14 +2404,8 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -3004,14 +2418,8 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -3024,14 +2432,8 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3044,14 +2446,8 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3064,14 +2460,8 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -3084,216 +2474,159 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="25"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="24"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="9"/>
+      <c r="G39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="21"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="9"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="21"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="9"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="21"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="9"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="17" t="s">
-        <v>20</v>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="21"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="17" t="s">
-        <v>21</v>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="28">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H43:L43"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:R44"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="G39:H42"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:M38"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -3303,210 +2636,157 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:W1"/>
+      <selection activeCell="F2" sqref="F2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="12" width="5.125" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="18" width="5.125" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="12" width="5.375" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="44" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="42" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="46" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-    </row>
-    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39" t="s">
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -3519,14 +2799,8 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3539,14 +2813,8 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3559,14 +2827,8 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3579,14 +2841,8 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3599,14 +2855,8 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3619,14 +2869,8 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3639,14 +2883,8 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3659,14 +2897,8 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3679,14 +2911,8 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3699,14 +2925,8 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3719,14 +2939,8 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3739,14 +2953,8 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3759,14 +2967,8 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3779,14 +2981,8 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3799,14 +2995,8 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3819,14 +3009,8 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3839,14 +3023,8 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3859,14 +3037,8 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3879,14 +3051,8 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3899,14 +3065,8 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3919,14 +3079,8 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3939,14 +3093,8 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3959,14 +3107,8 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -3979,14 +3121,8 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3999,14 +3135,8 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -4019,14 +3149,8 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -4039,14 +3163,8 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -4059,14 +3177,8 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -4079,14 +3191,8 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -4099,14 +3205,8 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -4119,216 +3219,159 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="25"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="24"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="9"/>
+      <c r="G39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="21"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="9"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="21"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="9"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="21"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="9"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="17" t="s">
-        <v>20</v>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="21"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="17" t="s">
-        <v>21</v>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="28">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:R3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:I39"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:R44"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="G39:H42"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4338,210 +3381,157 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:W1"/>
+      <selection activeCell="H5" sqref="H5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="12" width="5.125" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="18" width="5.125" customWidth="1"/>
-    <col min="22" max="22" width="13.625" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="12" width="5.375" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="46" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-    </row>
-    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39" t="s">
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -4554,14 +3544,8 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -4574,14 +3558,8 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -4594,14 +3572,8 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4614,14 +3586,8 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -4634,14 +3600,8 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -4654,14 +3614,8 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -4674,14 +3628,8 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4694,14 +3642,8 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -4714,14 +3656,8 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4734,14 +3670,8 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -4754,14 +3684,8 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4774,14 +3698,8 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -4794,14 +3712,8 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4814,14 +3726,8 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4834,14 +3740,8 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4854,14 +3754,8 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4874,14 +3768,8 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4894,14 +3782,8 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4914,14 +3796,8 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4934,14 +3810,8 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4954,14 +3824,8 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4974,14 +3838,8 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -4994,14 +3852,8 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -5014,14 +3866,8 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -5034,14 +3880,8 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -5054,14 +3894,8 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -5074,14 +3908,8 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -5094,14 +3922,8 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -5114,14 +3936,8 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -5134,14 +3950,8 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -5154,216 +3964,159 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="25"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="24"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="9"/>
+      <c r="G39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="21"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="9"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="21"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="9"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="21"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="9"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="17" t="s">
-        <v>20</v>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="21"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="17" t="s">
-        <v>21</v>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:R44"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="G39:H42"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="I42:M42"/>
+  <mergeCells count="28">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="F2:G3"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:R3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K3"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -5373,210 +4126,157 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:W1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="12" width="5.125" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="18" width="5.125" customWidth="1"/>
-    <col min="22" max="22" width="13.375" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="12" width="5.375" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="44" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="42" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="46" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-    </row>
-    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39" t="s">
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -5589,14 +4289,8 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5609,14 +4303,8 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5629,14 +4317,8 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5649,14 +4331,8 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5669,14 +4345,8 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5689,14 +4359,8 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5709,14 +4373,8 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5729,14 +4387,8 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5749,14 +4401,8 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5769,14 +4415,8 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -5789,14 +4429,8 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -5809,14 +4443,8 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -5829,14 +4457,8 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -5849,14 +4471,8 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -5869,14 +4485,8 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -5889,14 +4499,8 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -5909,14 +4513,8 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -5929,14 +4527,8 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -5949,14 +4541,8 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -5969,14 +4555,8 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -5989,14 +4569,8 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -6009,14 +4583,8 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -6029,14 +4597,8 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -6049,14 +4611,8 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -6069,14 +4625,8 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -6089,14 +4639,8 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -6109,14 +4653,8 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -6129,14 +4667,8 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -6149,14 +4681,8 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -6169,14 +4695,8 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -6189,216 +4709,159 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="25"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="24"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="9"/>
+      <c r="G39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="21"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="9"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="21"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="9"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="21"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="9"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="17" t="s">
-        <v>20</v>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="21"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="17" t="s">
-        <v>21</v>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:R44"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N38:R38"/>
+  <mergeCells count="28">
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:M38"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="G39:H42"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="I39:M39"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="I2:K3"/>
-    <mergeCell ref="C3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F2:G3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="28" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -6408,210 +4871,157 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="H5" sqref="H5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="12" width="5.125" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="18" width="5.125" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="12" width="5.375" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="44" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="42" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="46" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-    </row>
-    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39" t="s">
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6624,14 +5034,8 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -6644,14 +5048,8 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6664,14 +5062,8 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6684,14 +5076,8 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6704,14 +5090,8 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6724,14 +5104,8 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6744,14 +5118,8 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6764,14 +5132,8 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6784,14 +5146,8 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6804,14 +5160,8 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -6824,14 +5174,8 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -6844,14 +5188,8 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -6864,14 +5202,8 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -6884,14 +5216,8 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -6904,14 +5230,8 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -6924,14 +5244,8 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -6944,14 +5258,8 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6964,14 +5272,8 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -6984,14 +5286,8 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -7004,14 +5300,8 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -7024,14 +5314,8 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -7044,14 +5328,8 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -7064,14 +5342,8 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -7084,14 +5356,8 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -7104,14 +5370,8 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -7124,14 +5384,8 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -7144,14 +5398,8 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -7164,14 +5412,8 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -7184,14 +5426,8 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -7204,14 +5440,8 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -7224,216 +5454,159 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="25"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="24"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="9"/>
+      <c r="G39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="21"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="9"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="21"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="9"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="21"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="9"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="17" t="s">
-        <v>20</v>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="21"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="17" t="s">
-        <v>21</v>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:R43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:R44"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="G39:H42"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="I42:M42"/>
+  <mergeCells count="28">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="F2:G3"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:R3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K3"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7894,34 +6067,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="A1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="51">
+        <v>10</v>
+      </c>
+      <c r="B2" s="38">
         <v>0.99</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="42">
         <v>0.95</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="44">
         <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
@@ -8366,24 +6539,24 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="49">
+      <c r="A36" s="36">
         <v>33</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="40">
         <v>0.42899999999999999</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="40">
         <v>0.29699999999999999</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="40">
         <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="50"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
@@ -8848,24 +7021,24 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="49">
+      <c r="A71" s="36">
         <v>67</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="40">
         <v>0.29199999999999998</v>
       </c>
-      <c r="C71" s="53">
+      <c r="C71" s="40">
         <v>0.20399999999999999</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="40">
         <v>0.159</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="50"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
@@ -9330,8 +7503,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="49" t="s">
-        <v>26</v>
+      <c r="A106" s="36" t="s">
+        <v>12</v>
       </c>
       <c r="B106" s="8">
         <v>2.3264999999999998</v>
@@ -9344,15 +7517,15 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="50"/>
+      <c r="A107" s="37"/>
       <c r="B107" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
